--- a/체험점포_마포_신사업창업사관학교/음식 재료 가격표.xlsx
+++ b/체험점포_마포_신사업창업사관학교/음식 재료 가격표.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.102.76.43786"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="30" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="20" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>포장용기</t>
   </si>
@@ -155,14 +155,116 @@
   </si>
   <si>
     <t>꿀(사랑)</t>
+  </si>
+  <si>
+    <t>1~6</t>
+  </si>
+  <si>
+    <t>1kg, 6개</t>
+  </si>
+  <si>
+    <t>2kg, 6개</t>
+  </si>
+  <si>
+    <t>탄산수</t>
+  </si>
+  <si>
+    <t>크리스탈 탄산수</t>
+  </si>
+  <si>
+    <t>500ml, 40병</t>
+  </si>
+  <si>
+    <t>http://item.gmarket.co.kr/DetailView/Item.asp?goodscode=1589698257&amp;GoodsSale=Y&amp;jaehuid=200001169&amp;NaPm=ct%3Dko83ahwg%7Cci%3D586bafba990aa078fca738ba22372456de691bfb%7Ctr%3Dslsl%7Csn%3D24%7Chk%3Dda7cc39977135d3278a9fc259456b35567e641b2</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/da_foodmarket/products/5002418036?NaPm=ct%3Dko83hpxk%7Cci%3D0zq0000zsCXuepmVLflT%7Ctr%3Dpla%7Chk%3D505df85082711b22dd4224290025296841a5ff8d</t>
+  </si>
+  <si>
+    <t>아몬드</t>
+  </si>
+  <si>
+    <t>아몬드 슬라이스</t>
+  </si>
+  <si>
+    <t>1kg, 1개</t>
+  </si>
+  <si>
+    <t>견과류</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/nutspia/products/656010837?NaPm=ct%3Dko83pkc8%7Cci%3De3a6a8e976d5db60cc5aca251a27d862c2931703%7Ctr%3Dslsl%7Csn%3D234334%7Chk%3D186bb90f0c82b2a17939768fdfb9601406f9e88e</t>
+  </si>
+  <si>
+    <t>호두 반태</t>
+  </si>
+  <si>
+    <t>캐슈넛</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/da_foodmarket/products/5002417985?NaPm=ct%3Dko83skd4%7Cci%3D7d92838decba1e2aae54cee2fe1b8e8fc3947ae6%7Ctr%3Dslsl%7Csn%3D1451667%7Chk%3Dd833df59fb4228a8a52ebbe232cb3fe7541e25af</t>
+  </si>
+  <si>
+    <t>햇 캐슈넛</t>
+  </si>
+  <si>
+    <t>두유</t>
+  </si>
+  <si>
+    <t>연세두유</t>
+  </si>
+  <si>
+    <t>1L</t>
+  </si>
+  <si>
+    <t>http://itempage3.auction.co.kr/DetailView.aspx?ItemNo=B589120211&amp;frm3=V2</t>
+  </si>
+  <si>
+    <t>1L, 12개</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/01055240608/products/5446752518?NaPm=ct%3Dko8480ow%7Cci%3D1af48b0e0a21abd73c4079655fa1e155faf07b56%7Ctr%3Dslct%7Csn%3D203970%7Chk%3De8087b8d22d7f61d37ceaec6877d4b4f1273b919</t>
+  </si>
+  <si>
+    <t>https://cr.shopping.naver.com/adcr.nhn?x=JGf3p4Pps8DwUixB8NofVf%2F%2F%2Fw%3D%3DsLhrGProoZe7M6TcGT6GKwskoq8i1epftBALaM97SaLZ1S0hw8WUOKSzIWQhnYVve7pBiint2RzVgBYbJVQvM2SHh%2Bi9wUZcbAO5W6SIr8xxVXemfpmeX70wC2wQT5nyiBte2Da%2BcRSMmzTx7XU%2B5wHUFzrEAzVrv11OWkcdiiQY5FsigOzMdEzcqTwTsQfdZq8xwV9l9mEdt4nuGiRAdXLD9cbDzdvBhYP28y8rhu4mr9N9rARz1GwL8SD%2B61y0r9RD3Fi5EsOxuaLVEjADRk3D6YJ3vTNLVeN%2BQFEzAATW9513halgd1s%2FPOaMxeFQzWDuAJuqZbGlx0juudI9chT9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6MAr7d1NCFm9g11BMmZ07312tT2AG9M5jxdXEaCkbHF06VcVITSXlrxqjO%2FRUIED0xKVW6lZPw0aDD88%2B26oSLkn22of0kSyKtO45DjnYuDEWPiemBvz8G3mHjVPwxp8XAe9Om%2F1jSScVGMOr8Izh3aujxHFuUoKGhSaQhqOM0ydcL0IP0kgDInsbn4kMyxnU4P9%2BMB9KPuIujHEMI8lcmLDkuavm%2FiZxcrSwYcnZ5HyGAv2xA9xguVkCJJpofd3ukt7pybn2c0jyawBQYKNodeJsONXTuc07ynseK%2BoK680OEsHC78VBLnFZh%2FnDobeN&amp;nvMid=11300800568&amp;catId=50002007</t>
+  </si>
+  <si>
+    <t>메일두유</t>
+  </si>
+  <si>
+    <t>1L, 10개</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/coffeemonster/products/4823235915?NaPm=ct%3Dko84kgzs%7Cci%3D02bf3ade564d70f104a0c8773a3dc60842b9afa0%7Ctr%3Dslsl%7Csn%3D444061%7Chk%3Dafb12f58daec4a67e58843afd89224e9c75f0e3a</t>
+  </si>
+  <si>
+    <t>시럽</t>
+  </si>
+  <si>
+    <t>바닐라시럽</t>
+  </si>
+  <si>
+    <t>카라멜시럽</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/rushcoffee/products/4175321433?NaPm=ct%3Dko84mc4g%7Cci%3D32f76dda0fc9d911e859ee7233af1f392553a583%7Ctr%3Dslsl%7Csn%3D234710%7Chk%3Df961a8c4bf44e051926e3b6ece5a484e70da178d</t>
+  </si>
+  <si>
+    <t>700ml, 펌프추가</t>
+  </si>
+  <si>
+    <t>슈가시럽</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="22">
+  <numFmts count="2">
+    <numFmt numFmtId="64" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="65" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -283,6 +385,12 @@
       <sz val="24.0"/>
       <name val="맑은 고딕"/>
       <color theme="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="0"/>
     </font>
   </fonts>
   <fills count="33">
@@ -747,7 +855,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -758,6 +866,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1093,18 +1210,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B5:G13"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
     <col min="3" max="3" width="18.87999916" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="6" style="6" width="10.25500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:7" ht="34.500000" customHeight="1">
+    <row r="5" spans="1:7" ht="34.500000" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>36</v>
       </c>
@@ -1114,7 +1232,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="1:7">
       <c r="B6" s="0" t="s">
         <v>30</v>
       </c>
@@ -1124,17 +1242,17 @@
       <c r="D6" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="6" t="s">
         <v>34</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="1:7">
       <c r="B7" s="0" t="s">
         <v>1</v>
       </c>
@@ -1144,59 +1262,293 @@
       <c r="D7" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="B8" s="0" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D8" s="0">
         <v>1</v>
       </c>
-      <c r="E8" s="3">
-        <v>5600</v>
-      </c>
-      <c r="F8" s="0">
+      <c r="E8" s="6">
+        <v>33600</v>
+      </c>
+      <c r="F8" s="6">
         <v>5600</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1"/>
       <c r="B9" s="0" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D9" s="0">
         <v>1</v>
       </c>
-      <c r="E9" s="0">
-        <v>8400</v>
-      </c>
-      <c r="F9" s="0">
+      <c r="E9" s="6">
+        <v>50400</v>
+      </c>
+      <c r="F9" s="6">
         <v>8400</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>43</v>
       </c>
     </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="0">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6">
+        <v>15720</v>
+      </c>
+      <c r="F10" s="6">
+        <v>393</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="0">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6">
+        <v>8200</v>
+      </c>
+      <c r="F11" s="6">
+        <v>8200</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="0">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6">
+        <v>8900</v>
+      </c>
+      <c r="F12" s="6">
+        <v>8900</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1"/>
+      <c r="B13" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="0">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6">
+        <v>8900</v>
+      </c>
+      <c r="F13" s="6">
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1"/>
+      <c r="B14" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="0">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6">
+        <v>10900</v>
+      </c>
+      <c r="F14" s="6">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="0">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6">
+        <v>9900</v>
+      </c>
+      <c r="F15" s="6">
+        <v>9900</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="0">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6">
+        <v>11800</v>
+      </c>
+      <c r="F16" s="6">
+        <v>990</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="B17" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="0">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6">
+        <v>9430</v>
+      </c>
+      <c r="F17" s="6">
+        <v>943</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="0">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6">
+        <v>8000</v>
+      </c>
+      <c r="F18" s="6">
+        <v>6500</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="B19" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="0">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6">
+        <v>8000</v>
+      </c>
+      <c r="F19" s="6">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="B20" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="0">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6">
+        <v>4000</v>
+      </c>
+      <c r="F20" s="6">
+        <v>2500</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>

--- a/체험점포_마포_신사업창업사관학교/음식 재료 가격표.xlsx
+++ b/체험점포_마포_신사업창업사관학교/음식 재료 가격표.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.102.76.43786"/>
+  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.102.66.42778"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="20" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="10" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>포장용기</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>슈가시럽</t>
+  </si>
+  <si>
+    <t>https://www.megacoffee.co.kr/goods/goods_view.php?goodsNo=71832</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1216,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1525,6 +1528,9 @@
       </c>
       <c r="F19" s="6">
         <v>6500</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:7">

--- a/체험점포_마포_신사업창업사관학교/음식 재료 가격표.xlsx
+++ b/체험점포_마포_신사업창업사관학교/음식 재료 가격표.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.102.66.42778"/>
+  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.102.76.43786"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="10" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -267,7 +267,7 @@
     <numFmt numFmtId="64" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="65" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -394,6 +394,12 @@
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
       <color theme="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="10"/>
     </font>
   </fonts>
   <fills count="33">
@@ -858,7 +864,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -878,6 +884,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="65" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1216,7 +1225,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1361,7 +1370,7 @@
       <c r="F11" s="6">
         <v>8200</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="7" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1557,10 +1566,13 @@
     <mergeCell ref="A12:A14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="G11"/>
+  </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
